--- a/biology/Histoire de la zoologie et de la botanique/Sergey_A._Kurbatov/Sergey_A._Kurbatov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sergey_A._Kurbatov/Sergey_A._Kurbatov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergey Kurbatov est un entomologiste russe, spécialiste des coléoptères de la famille des Staphylinidae, et notamment la sous-famille des Pselaphinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agathidium kurbatovi Perkovsky, 1990
@@ -526,13 +540,13 @@
 Eucinetella kurbatovi Nikitsky, 1996
 Frostia kurbatovi Wittmer, 1997
 Kurilister kurbatovi Tishechkin, 1992, désormais Margarinotus kurbatovi (Tishechkin, 1992)
-Laena kurbatovi Schawaller, 2006[1]
+Laena kurbatovi Schawaller, 2006
 Malthodes kurbatovi Kazantsev, 1995
-Megarthrus kurbatovi Cuccodoro, 2018[2]
+Megarthrus kurbatovi Cuccodoro, 2018
 Nemadus kurbatovi Perkovsky, 1994
 Proleptodirina kurbatovi Perkovsky, 1998
 Rhagonycha kurbatovi Kazantsev, 1994
-Scaphidium kurbatovi Löbl, 1999[3]
+Scaphidium kurbatovi Löbl, 1999
 Sciaphyes kurbatovi Perreau, 1996
 Sinobathyscia kurbatovi Perreau, 1999
 Thinodromus kurbatovi Gildenkov, 2000
